--- a/biology/Origine et évolution du vivant/Prix_Kistler/Prix_Kistler.xlsx
+++ b/biology/Origine et évolution du vivant/Prix_Kistler/Prix_Kistler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Kistler (créé en 1999) est un prix prestigieux remis chaque année pour féliciter des contributions originales aux personnes ou organisations « participant à la compréhension des liens existants entre l'hérédité humaine et la société humaine ». 
 Ce prix est accompagné d'une dotation de 100 000 dollars américains et d'une médaille en or de 200 grammes.
@@ -512,7 +524,9 @@
           <t>Lauréats du prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nom de ce prix est issu du physicien et inventeur Walter Kistler. 
 Les lauréats ont été :
@@ -555,7 +569,9 @@
           <t>Prix du livre Walter P. Kistler</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Prix du livre Walter P. Kistler fut créé en 2003 pour récompenser les auteurs reconnus d'ouvrages de vulgarisation scientifique qui « améliorent de façon significative la connaissance et la compréhension du public vis-à-vis des sujets qui vont concerner l’avenir de nos espèces ». Le prix comprend une dotation de 10 000 dollars américains et est remis lors d'une cérémonie ouverte au grand public.
 Les lauréats ont été :
@@ -594,9 +610,11 @@
           <t>Fondation Pour le Futur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mission de la Fondation Pour le Futur est d'améliorer et de diffuser la connaissance relative au futur de l'humanité. Il mène de nombreux programmes et activités afin de promouvoir la compréhension des facteurs ayant un effet sur la vie humaine et son évolution sur le long terme[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mission de la Fondation Pour le Futur est d'améliorer et de diffuser la connaissance relative au futur de l'humanité. Il mène de nombreux programmes et activités afin de promouvoir la compréhension des facteurs ayant un effet sur la vie humaine et son évolution sur le long terme.
 </t>
         </is>
       </c>
